--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizar\PycharmProjects\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01430B7-8862-40DC-BE53-A11F660E92E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA807AFB-DA1F-48F3-A718-D295894F0876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DEFB9C39-CBB7-45E8-A48F-7536BB06677B}"/>
   </bookViews>
@@ -961,10 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883090B8-ACAA-47D5-903B-9094A097DB32}">
-  <dimension ref="A1:N750"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J359" sqref="J359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2021</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2021</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2021</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2021</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2021</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>2021</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2021</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2021</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2021</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2021</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2021</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2021</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2021</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2021</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2021</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2021</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2021</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2021</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2021</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2021</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2021</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2021</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2021</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2021</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2021</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2021</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2021</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2016</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2021</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2021</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2021</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2021</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2021</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2021</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2021</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2021</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2021</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2021</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2021</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2021</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2021</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2021</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2021</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2021</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>2021</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2021</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2021</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2021</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2021</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2021</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>2021</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2021</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2021</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2021</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2021</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2021</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2021</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>2021</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>2021</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2021</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2021</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>2021</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>2021</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>2021</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>2021</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>2021</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2021</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>2021</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>2021</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2020</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>2020</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2020</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2020</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2020</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2020</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2020</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>2020</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>2016</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>2020</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>2020</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>2020</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>2020</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>2020</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>2020</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>2020</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>2020</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>2020</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>2020</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>2020</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2020</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2020</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>2020</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2020</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2020</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>2020</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>2020</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>2020</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>2020</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>2020</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>2020</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>2020</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>2020</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>2020</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>2020</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>2020</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2020</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>2020</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>2020</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>2020</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>2020</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>2020</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>2020</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>2020</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>2020</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>2020</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>2020</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>2020</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>2020</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>2020</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2020</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>2020</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2020</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2020</v>
       </c>
@@ -6529,7 +6530,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>2020</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>2020</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>2020</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2020</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2020</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>2020</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2020</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2020</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>2020</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>2020</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>2020</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>2020</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>2020</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2020</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2020</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>2020</v>
       </c>
@@ -7233,7 +7234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>2020</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>2020</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2020</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>2020</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>2020</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2019</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2019</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>2019</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2019</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>2019</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <v>2019</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>2019</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>2019</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>2019</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>2019</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>2019</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>2019</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>2019</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>2019</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>2019</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>2019</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>2019</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2019</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2019</v>
       </c>
@@ -8289,7 +8290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>2019</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2019</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2019</v>
       </c>
@@ -8421,7 +8422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>2019</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>2019</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>2019</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>2019</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>2019</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>2019</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <v>2019</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>2019</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>2012</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>2019</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>2019</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>2019</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>2019</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>2019</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>2019</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>2019</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>2019</v>
       </c>
@@ -9169,7 +9170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>2019</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2019</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <v>2019</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>2019</v>
       </c>
@@ -9345,7 +9346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2019</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2019</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>2019</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>2019</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2019</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>2019</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <v>2019</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>2019</v>
       </c>
@@ -9697,7 +9698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>2019</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>2019</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2019</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2019</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2019</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2019</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2019</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <v>2019</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>2019</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2019</v>
       </c>
@@ -10137,7 +10138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2019</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2019</v>
       </c>
@@ -10225,7 +10226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2019</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <v>2019</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>2019</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>2019</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2019</v>
       </c>
@@ -10445,7 +10446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>2019</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>2019</v>
       </c>
@@ -10533,7 +10534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2019</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <v>2019</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>2019</v>
       </c>
@@ -10665,7 +10666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>2018</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>2018</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>2018</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>2018</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>2018</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>2018</v>
       </c>
@@ -10929,7 +10930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>2018</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>2018</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>2018</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>2018</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>2018</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>2018</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>2018</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>2018</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>2018</v>
       </c>
@@ -11325,7 +11326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>2018</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2018</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>2018</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>2018</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>2018</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2018</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
         <v>2018</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>2012</v>
       </c>
@@ -11677,7 +11678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>2018</v>
       </c>
@@ -11721,7 +11722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>2018</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>2018</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>2018</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>2018</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>2018</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>2018</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>2018</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>2018</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>2018</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>2018</v>
       </c>
@@ -12161,7 +12162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>2018</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2018</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>2018</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>2018</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>2018</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>2018</v>
       </c>
@@ -12425,7 +12426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>2018</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2018</v>
       </c>
@@ -12513,7 +12514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <v>2018</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>2018</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>2018</v>
       </c>
@@ -12645,7 +12646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>2018</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>2018</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>2018</v>
       </c>
@@ -12777,7 +12778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>2018</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>2018</v>
       </c>
@@ -12865,7 +12866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>2018</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>2018</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>2018</v>
       </c>
@@ -12997,7 +12998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>2018</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>2018</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>2018</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="15">
         <v>2018</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>2011</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>2018</v>
       </c>
@@ -13261,7 +13262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>2018</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>2018</v>
       </c>
@@ -13349,7 +13350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>2018</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>2018</v>
       </c>
@@ -13437,7 +13438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>2018</v>
       </c>
@@ -13481,7 +13482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>2018</v>
       </c>
@@ -13525,7 +13526,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>2018</v>
       </c>
@@ -13569,7 +13570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>2018</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>2018</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>2018</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="15">
         <v>2018</v>
       </c>
@@ -13770,8 +13771,12 @@
       <c r="H291" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I291" s="13"/>
-      <c r="J291" s="13"/>
+      <c r="I291" s="13">
+        <v>0</v>
+      </c>
+      <c r="J291" s="13">
+        <v>0</v>
+      </c>
       <c r="K291" s="14">
         <v>5</v>
       </c>
@@ -13785,7 +13790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>2018</v>
       </c>
@@ -13829,7 +13834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>2018</v>
       </c>
@@ -13873,7 +13878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>2018</v>
       </c>
@@ -13917,7 +13922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>2018</v>
       </c>
@@ -13961,7 +13966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>2018</v>
       </c>
@@ -14005,7 +14010,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>2018</v>
       </c>
@@ -14049,7 +14054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="15">
         <v>2018</v>
       </c>
@@ -14093,7 +14098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>2018</v>
       </c>
@@ -14137,7 +14142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>2018</v>
       </c>
@@ -14181,7 +14186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>2018</v>
       </c>
@@ -14225,7 +14230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>2018</v>
       </c>
@@ -14269,7 +14274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>2018</v>
       </c>
@@ -14313,7 +14318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>2018</v>
       </c>
@@ -14357,7 +14362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <v>2018</v>
       </c>
@@ -14401,7 +14406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>2018</v>
       </c>
@@ -14445,7 +14450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>2018</v>
       </c>
@@ -14489,7 +14494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>2018</v>
       </c>
@@ -14533,7 +14538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>2018</v>
       </c>
@@ -14577,7 +14582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>2018</v>
       </c>
@@ -14621,7 +14626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <v>2018</v>
       </c>
@@ -14665,7 +14670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>2018</v>
       </c>
@@ -14709,7 +14714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>2017</v>
       </c>
@@ -14753,7 +14758,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>2017</v>
       </c>
@@ -14797,7 +14802,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16">
         <v>2017</v>
       </c>
@@ -14841,7 +14846,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>2017</v>
       </c>
@@ -14885,7 +14890,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>2017</v>
       </c>
@@ -14929,7 +14934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>2017</v>
       </c>
@@ -14973,7 +14978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>2017</v>
       </c>
@@ -15017,7 +15022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>2017</v>
       </c>
@@ -15061,7 +15066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>2017</v>
       </c>
@@ -15105,7 +15110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>2017</v>
       </c>
@@ -15149,7 +15154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>2017</v>
       </c>
@@ -15193,7 +15198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>2017</v>
       </c>
@@ -15237,7 +15242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>2017</v>
       </c>
@@ -15281,7 +15286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>2017</v>
       </c>
@@ -15325,7 +15330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>2017</v>
       </c>
@@ -15369,7 +15374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>2017</v>
       </c>
@@ -15413,7 +15418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>2017</v>
       </c>
@@ -15457,7 +15462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>2017</v>
       </c>
@@ -15501,7 +15506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="16">
         <v>2017</v>
       </c>
@@ -15545,7 +15550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>2011</v>
       </c>
@@ -15589,7 +15594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>2017</v>
       </c>
@@ -15633,7 +15638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>2017</v>
       </c>
@@ -15677,7 +15682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>2017</v>
       </c>
@@ -15721,7 +15726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>2017</v>
       </c>
@@ -15765,7 +15770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>2017</v>
       </c>
@@ -15809,7 +15814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>2017</v>
       </c>
@@ -15853,7 +15858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>2017</v>
       </c>
@@ -15897,7 +15902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>2017</v>
       </c>
@@ -15941,7 +15946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>2017</v>
       </c>
@@ -15985,7 +15990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>2017</v>
       </c>
@@ -16029,7 +16034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>2017</v>
       </c>
@@ -16073,7 +16078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>2017</v>
       </c>
@@ -16117,7 +16122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>2017</v>
       </c>
@@ -16161,7 +16166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>2017</v>
       </c>
@@ -16205,7 +16210,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>2017</v>
       </c>
@@ -16249,7 +16254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>2017</v>
       </c>
@@ -16293,7 +16298,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>2017</v>
       </c>
@@ -16337,7 +16342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <v>2017</v>
       </c>
@@ -16381,7 +16386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="16">
         <v>2017</v>
       </c>
@@ -16425,7 +16430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>2017</v>
       </c>
@@ -16469,7 +16474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>2017</v>
       </c>
@@ -16513,7 +16518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>2017</v>
       </c>
@@ -16557,7 +16562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>2017</v>
       </c>
@@ -16601,7 +16606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>2017</v>
       </c>
@@ -16645,7 +16650,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>2017</v>
       </c>
@@ -16689,7 +16694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>2017</v>
       </c>
@@ -16777,7 +16782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>2017</v>
       </c>
@@ -16821,7 +16826,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>2017</v>
       </c>
@@ -16865,7 +16870,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <v>2017</v>
       </c>
@@ -16909,7 +16914,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>2017</v>
       </c>
@@ -16953,7 +16958,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="16">
         <v>2017</v>
       </c>
@@ -16997,7 +17002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>2017</v>
       </c>
@@ -17041,7 +17046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>2017</v>
       </c>
@@ -17085,7 +17090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>2017</v>
       </c>
@@ -17129,7 +17134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>2017</v>
       </c>
@@ -17173,7 +17178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>2017</v>
       </c>
@@ -17217,7 +17222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>2017</v>
       </c>
@@ -17261,7 +17266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>2017</v>
       </c>
@@ -17305,7 +17310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -17349,7 +17354,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -17393,7 +17398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>2016</v>
       </c>
@@ -17437,7 +17442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>2016</v>
       </c>
@@ -17481,7 +17486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>2016</v>
       </c>
@@ -17525,7 +17530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="16">
         <v>2016</v>
       </c>
@@ -17569,7 +17574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>2011</v>
       </c>
@@ -17613,7 +17618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -17657,7 +17662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -17701,7 +17706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -17745,7 +17750,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -17789,7 +17794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -17833,7 +17838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -17877,7 +17882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -17921,7 +17926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>2016</v>
       </c>
@@ -17965,7 +17970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>2016</v>
       </c>
@@ -18009,7 +18014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>2016</v>
       </c>
@@ -18053,7 +18058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>2016</v>
       </c>
@@ -18097,7 +18102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>2016</v>
       </c>
@@ -18141,7 +18146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>2016</v>
       </c>
@@ -18185,7 +18190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>2016</v>
       </c>
@@ -18229,7 +18234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>2016</v>
       </c>
@@ -18273,7 +18278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>2016</v>
       </c>
@@ -18317,7 +18322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>2016</v>
       </c>
@@ -18361,7 +18366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="16">
         <v>2016</v>
       </c>
@@ -18405,7 +18410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>2010</v>
       </c>
@@ -18449,7 +18454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>2016</v>
       </c>
@@ -18493,7 +18498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>2016</v>
       </c>
@@ -18537,7 +18542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>2016</v>
       </c>
@@ -18581,7 +18586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>2016</v>
       </c>
@@ -18625,7 +18630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>2016</v>
       </c>
@@ -18669,7 +18674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>2016</v>
       </c>
@@ -18713,7 +18718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>2016</v>
       </c>
@@ -18757,7 +18762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>2016</v>
       </c>
@@ -18801,7 +18806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>2016</v>
       </c>
@@ -18845,7 +18850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>2016</v>
       </c>
@@ -18889,7 +18894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>2016</v>
       </c>
@@ -18933,7 +18938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>2016</v>
       </c>
@@ -18977,7 +18982,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>2016</v>
       </c>
@@ -19021,7 +19026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>2016</v>
       </c>
@@ -19065,7 +19070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="16">
         <v>2016</v>
       </c>
@@ -19153,7 +19158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>2016</v>
       </c>
@@ -19197,7 +19202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>2016</v>
       </c>
@@ -19241,7 +19246,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>2016</v>
       </c>
@@ -19285,7 +19290,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>2016</v>
       </c>
@@ -19329,7 +19334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>2016</v>
       </c>
@@ -19373,7 +19378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>2016</v>
       </c>
@@ -19417,7 +19422,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>2016</v>
       </c>
@@ -19461,7 +19466,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>2016</v>
       </c>
@@ -19505,7 +19510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <v>2016</v>
       </c>
@@ -19549,7 +19554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>2016</v>
       </c>
@@ -19593,7 +19598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="16">
         <v>2016</v>
       </c>
@@ -19637,7 +19642,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="425" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>2010</v>
       </c>
@@ -19681,7 +19686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>2016</v>
       </c>
@@ -19725,7 +19730,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="427" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>2021</v>
       </c>
@@ -19769,7 +19774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>2016</v>
       </c>
@@ -19813,7 +19818,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>2016</v>
       </c>
@@ -19857,7 +19862,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>2016</v>
       </c>
@@ -19901,7 +19906,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>2016</v>
       </c>
@@ -19945,7 +19950,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>2016</v>
       </c>
@@ -19989,7 +19994,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>2016</v>
       </c>
@@ -20033,7 +20038,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>2016</v>
       </c>
@@ -20077,7 +20082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>2016</v>
       </c>
@@ -20121,7 +20126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>2016</v>
       </c>
@@ -20165,7 +20170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>2016</v>
       </c>
@@ -20209,7 +20214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>2015</v>
       </c>
@@ -20253,7 +20258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>2015</v>
       </c>
@@ -20297,7 +20302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>2015</v>
       </c>
@@ -20341,7 +20346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>2015</v>
       </c>
@@ -20385,7 +20390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="15">
         <v>2015</v>
       </c>
@@ -20473,7 +20478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="444" spans="1:14" s="18" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" s="18" customFormat="1" ht="22.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>2020</v>
       </c>
@@ -20517,7 +20522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>2015</v>
       </c>
@@ -20561,7 +20566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>2015</v>
       </c>
@@ -20605,7 +20610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>2015</v>
       </c>
@@ -20649,7 +20654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>2015</v>
       </c>
@@ -20693,7 +20698,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>2015</v>
       </c>
@@ -20737,7 +20742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2015</v>
       </c>
@@ -20781,7 +20786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>2015</v>
       </c>
@@ -20825,7 +20830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>2015</v>
       </c>
@@ -20869,7 +20874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>2015</v>
       </c>
@@ -20913,7 +20918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>2015</v>
       </c>
@@ -20957,7 +20962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>2015</v>
       </c>
@@ -21001,7 +21006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>2015</v>
       </c>
@@ -21045,7 +21050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>2015</v>
       </c>
@@ -21089,7 +21094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>2015</v>
       </c>
@@ -21133,7 +21138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>2015</v>
       </c>
@@ -21177,7 +21182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>2015</v>
       </c>
@@ -21221,7 +21226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>2015</v>
       </c>
@@ -21265,7 +21270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>2015</v>
       </c>
@@ -21309,7 +21314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>2015</v>
       </c>
@@ -21353,7 +21358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>2015</v>
       </c>
@@ -21397,7 +21402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>2015</v>
       </c>
@@ -21441,7 +21446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <v>2015</v>
       </c>
@@ -21485,7 +21490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>2015</v>
       </c>
@@ -21529,7 +21534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="15">
         <v>2015</v>
       </c>
@@ -21573,7 +21578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="469" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>2019</v>
       </c>
@@ -21617,7 +21622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
         <v>2015</v>
       </c>
@@ -21661,7 +21666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
         <v>2015</v>
       </c>
@@ -21705,7 +21710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>2015</v>
       </c>
@@ -21749,7 +21754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
         <v>2015</v>
       </c>
@@ -21793,7 +21798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>2015</v>
       </c>
@@ -21837,7 +21842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>2015</v>
       </c>
@@ -21881,7 +21886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>2015</v>
       </c>
@@ -21925,7 +21930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>2015</v>
       </c>
@@ -21969,7 +21974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>2015</v>
       </c>
@@ -22013,7 +22018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
         <v>2015</v>
       </c>
@@ -22057,7 +22062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>2015</v>
       </c>
@@ -22101,7 +22106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>2015</v>
       </c>
@@ -22145,7 +22150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <v>2015</v>
       </c>
@@ -22189,7 +22194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>2015</v>
       </c>
@@ -22233,7 +22238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>2015</v>
       </c>
@@ -22277,7 +22282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
         <v>2015</v>
       </c>
@@ -22321,7 +22326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
         <v>2015</v>
       </c>
@@ -22365,7 +22370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>2015</v>
       </c>
@@ -22409,7 +22414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>2015</v>
       </c>
@@ -22453,7 +22458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>2015</v>
       </c>
@@ -22497,7 +22502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="15">
         <v>2015</v>
       </c>
@@ -22585,7 +22590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
         <v>2015</v>
       </c>
@@ -22629,7 +22634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>2015</v>
       </c>
@@ -22673,7 +22678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>2015</v>
       </c>
@@ -22717,7 +22722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>2015</v>
       </c>
@@ -22761,7 +22766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>2015</v>
       </c>
@@ -22805,7 +22810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>2015</v>
       </c>
@@ -22849,7 +22854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>2015</v>
       </c>
@@ -22893,7 +22898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2014</v>
       </c>
@@ -22937,7 +22942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
         <v>2014</v>
       </c>
@@ -22975,7 +22980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
         <v>2014</v>
       </c>
@@ -23019,7 +23024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>2014</v>
       </c>
@@ -23063,7 +23068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="15">
         <v>2014</v>
       </c>
@@ -23107,7 +23112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="504" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -23151,7 +23156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2014</v>
       </c>
@@ -23195,7 +23200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
         <v>2014</v>
       </c>
@@ -23239,7 +23244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6">
         <v>2014</v>
       </c>
@@ -23283,7 +23288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6">
         <v>2014</v>
       </c>
@@ -23327,7 +23332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6">
         <v>2014</v>
       </c>
@@ -23371,7 +23376,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6">
         <v>2014</v>
       </c>
@@ -23415,7 +23420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6">
         <v>2014</v>
       </c>
@@ -23459,7 +23464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6">
         <v>2014</v>
       </c>
@@ -23503,7 +23508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6">
         <v>2014</v>
       </c>
@@ -23547,7 +23552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6">
         <v>2014</v>
       </c>
@@ -23591,7 +23596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6">
         <v>2014</v>
       </c>
@@ -23635,7 +23640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6">
         <v>2014</v>
       </c>
@@ -23679,7 +23684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6">
         <v>2014</v>
       </c>
@@ -23723,7 +23728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6">
         <v>2014</v>
       </c>
@@ -23767,7 +23772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6">
         <v>2014</v>
       </c>
@@ -23811,7 +23816,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="15">
         <v>2014</v>
       </c>
@@ -23899,7 +23904,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6">
         <v>2014</v>
       </c>
@@ -23943,7 +23948,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
         <v>2014</v>
       </c>
@@ -23987,7 +23992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6">
         <v>2014</v>
       </c>
@@ -24031,7 +24036,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6">
         <v>2014</v>
       </c>
@@ -24075,7 +24080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6">
         <v>2014</v>
       </c>
@@ -24119,7 +24124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6">
         <v>2014</v>
       </c>
@@ -24163,7 +24168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6">
         <v>2014</v>
       </c>
@@ -24207,7 +24212,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6">
         <v>2014</v>
       </c>
@@ -24251,7 +24256,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6">
         <v>2014</v>
       </c>
@@ -24295,7 +24300,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6">
         <v>2014</v>
       </c>
@@ -24339,7 +24344,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="15">
         <v>2014</v>
       </c>
@@ -24383,7 +24388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="533" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6">
         <v>2018</v>
       </c>
@@ -24427,7 +24432,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6">
         <v>2014</v>
       </c>
@@ -24471,7 +24476,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="15">
         <v>2014</v>
       </c>
@@ -24515,7 +24520,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6">
         <v>2014</v>
       </c>
@@ -24559,7 +24564,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6">
         <v>2014</v>
       </c>
@@ -24603,7 +24608,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="538" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6">
         <v>2017</v>
       </c>
@@ -24647,7 +24652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6">
         <v>2014</v>
       </c>
@@ -24691,7 +24696,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6">
         <v>2014</v>
       </c>
@@ -24735,7 +24740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6">
         <v>2014</v>
       </c>
@@ -24779,7 +24784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6">
         <v>2014</v>
       </c>
@@ -24823,7 +24828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6">
         <v>2014</v>
       </c>
@@ -24867,7 +24872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6">
         <v>2014</v>
       </c>
@@ -24911,7 +24916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6">
         <v>2014</v>
       </c>
@@ -24955,7 +24960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6">
         <v>2014</v>
       </c>
@@ -24999,7 +25004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6">
         <v>2014</v>
       </c>
@@ -25043,7 +25048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6">
         <v>2014</v>
       </c>
@@ -25087,7 +25092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="15">
         <v>2014</v>
       </c>
@@ -25131,7 +25136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="550" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6">
         <v>2016</v>
       </c>
@@ -25175,7 +25180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6">
         <v>2014</v>
       </c>
@@ -25219,7 +25224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6">
         <v>2013</v>
       </c>
@@ -25263,7 +25268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6">
         <v>2013</v>
       </c>
@@ -25307,7 +25312,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6">
         <v>2013</v>
       </c>
@@ -25351,7 +25356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6">
         <v>2013</v>
       </c>
@@ -25395,7 +25400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6">
         <v>2013</v>
       </c>
@@ -25439,7 +25444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6">
         <v>2013</v>
       </c>
@@ -25483,7 +25488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6">
         <v>2013</v>
       </c>
@@ -25527,7 +25532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6">
         <v>2013</v>
       </c>
@@ -25571,7 +25576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6">
         <v>2013</v>
       </c>
@@ -25615,7 +25620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6">
         <v>2013</v>
       </c>
@@ -25659,7 +25664,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6">
         <v>2013</v>
       </c>
@@ -25703,7 +25708,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6">
         <v>2013</v>
       </c>
@@ -25747,7 +25752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6">
         <v>2013</v>
       </c>
@@ -25791,7 +25796,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6">
         <v>2013</v>
       </c>
@@ -25835,7 +25840,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6">
         <v>2013</v>
       </c>
@@ -25879,7 +25884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6">
         <v>2013</v>
       </c>
@@ -25923,7 +25928,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6">
         <v>2013</v>
       </c>
@@ -25967,7 +25972,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6">
         <v>2013</v>
       </c>
@@ -26055,7 +26060,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="571" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6">
         <v>2016</v>
       </c>
@@ -26099,7 +26104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6">
         <v>2013</v>
       </c>
@@ -26143,7 +26148,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6">
         <v>2013</v>
       </c>
@@ -26187,7 +26192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6">
         <v>2013</v>
       </c>
@@ -26231,7 +26236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6">
         <v>2013</v>
       </c>
@@ -26275,7 +26280,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6">
         <v>2013</v>
       </c>
@@ -26319,7 +26324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6">
         <v>2013</v>
       </c>
@@ -26363,7 +26368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6">
         <v>2013</v>
       </c>
@@ -26407,7 +26412,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6">
         <v>2013</v>
       </c>
@@ -26451,7 +26456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6">
         <v>2013</v>
       </c>
@@ -26495,7 +26500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6">
         <v>2013</v>
       </c>
@@ -26539,7 +26544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6">
         <v>2013</v>
       </c>
@@ -26583,7 +26588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6">
         <v>2013</v>
       </c>
@@ -26627,7 +26632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6">
         <v>2013</v>
       </c>
@@ -26671,7 +26676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6">
         <v>2013</v>
       </c>
@@ -26715,7 +26720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6">
         <v>2013</v>
       </c>
@@ -26759,7 +26764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6">
         <v>2013</v>
       </c>
@@ -26803,7 +26808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6">
         <v>2013</v>
       </c>
@@ -26847,7 +26852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6">
         <v>2013</v>
       </c>
@@ -26891,7 +26896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6">
         <v>2012</v>
       </c>
@@ -26935,7 +26940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6">
         <v>2012</v>
       </c>
@@ -26979,7 +26984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6">
         <v>2012</v>
       </c>
@@ -27023,7 +27028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6">
         <v>2012</v>
       </c>
@@ -27067,7 +27072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6">
         <v>2012</v>
       </c>
@@ -27111,7 +27116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6">
         <v>2012</v>
       </c>
@@ -27155,7 +27160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6">
         <v>2012</v>
       </c>
@@ -27199,7 +27204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6">
         <v>2012</v>
       </c>
@@ -27243,7 +27248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6">
         <v>2012</v>
       </c>
@@ -27287,7 +27292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6">
         <v>2012</v>
       </c>
@@ -27331,7 +27336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6">
         <v>2012</v>
       </c>
@@ -27375,7 +27380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6">
         <v>2012</v>
       </c>
@@ -27419,7 +27424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6">
         <v>2012</v>
       </c>
@@ -27463,7 +27468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6">
         <v>2012</v>
       </c>
@@ -27507,7 +27512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="6">
         <v>2012</v>
       </c>
@@ -27551,7 +27556,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="6">
         <v>2012</v>
       </c>
@@ -27595,7 +27600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="7">
         <v>2012</v>
       </c>
@@ -27639,7 +27644,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="6">
         <v>2012</v>
       </c>
@@ -27727,7 +27732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="6">
         <v>2012</v>
       </c>
@@ -27771,7 +27776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="610" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="6">
         <v>2015</v>
       </c>
@@ -27815,7 +27820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="6">
         <v>2012</v>
       </c>
@@ -27859,7 +27864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="6">
         <v>2012</v>
       </c>
@@ -27903,7 +27908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="6">
         <v>2012</v>
       </c>
@@ -27947,7 +27952,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="6">
         <v>2012</v>
       </c>
@@ -27991,7 +27996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="6">
         <v>2012</v>
       </c>
@@ -28035,7 +28040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="6">
         <v>2012</v>
       </c>
@@ -28079,7 +28084,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="6">
         <v>2012</v>
       </c>
@@ -28123,7 +28128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="6">
         <v>2012</v>
       </c>
@@ -28167,7 +28172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="6">
         <v>2012</v>
       </c>
@@ -28255,7 +28260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6">
         <v>2012</v>
       </c>
@@ -28299,7 +28304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="622" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="6">
         <v>2015</v>
       </c>
@@ -28343,7 +28348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="6">
         <v>2012</v>
       </c>
@@ -28387,7 +28392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="6">
         <v>2012</v>
       </c>
@@ -28431,7 +28436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="6">
         <v>2012</v>
       </c>
@@ -28519,7 +28524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="6">
         <v>2012</v>
       </c>
@@ -28607,7 +28612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="6">
         <v>2011</v>
       </c>
@@ -28651,7 +28656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="6">
         <v>2011</v>
       </c>
@@ -28695,7 +28700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="6">
         <v>2011</v>
       </c>
@@ -28739,7 +28744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="6">
         <v>2011</v>
       </c>
@@ -28783,7 +28788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="6">
         <v>2011</v>
       </c>
@@ -28827,7 +28832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="6">
         <v>2011</v>
       </c>
@@ -28871,7 +28876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="6">
         <v>2011</v>
       </c>
@@ -28915,7 +28920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="6">
         <v>2011</v>
       </c>
@@ -28959,7 +28964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="6">
         <v>2011</v>
       </c>
@@ -29003,7 +29008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="6">
         <v>2011</v>
       </c>
@@ -29047,7 +29052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="6">
         <v>2011</v>
       </c>
@@ -29091,7 +29096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="6">
         <v>2011</v>
       </c>
@@ -29135,7 +29140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="6">
         <v>2011</v>
       </c>
@@ -29179,7 +29184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="6">
         <v>2011</v>
       </c>
@@ -29223,7 +29228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="6">
         <v>2011</v>
       </c>
@@ -29267,7 +29272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="6">
         <v>2011</v>
       </c>
@@ -29311,7 +29316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="6">
         <v>2011</v>
       </c>
@@ -29355,7 +29360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="6">
         <v>2011</v>
       </c>
@@ -29399,7 +29404,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="6">
         <v>2011</v>
       </c>
@@ -29443,7 +29448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="6">
         <v>2011</v>
       </c>
@@ -29487,7 +29492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="6">
         <v>2011</v>
       </c>
@@ -29575,7 +29580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="651" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="6">
         <v>2014</v>
       </c>
@@ -29619,7 +29624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6">
         <v>2011</v>
       </c>
@@ -29663,7 +29668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6">
         <v>2011</v>
       </c>
@@ -29707,7 +29712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="6">
         <v>2011</v>
       </c>
@@ -29751,7 +29756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="6">
         <v>2011</v>
       </c>
@@ -29795,7 +29800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="6">
         <v>2011</v>
       </c>
@@ -29839,7 +29844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6">
         <v>2011</v>
       </c>
@@ -29883,7 +29888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="6">
         <v>2011</v>
       </c>
@@ -29927,7 +29932,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="6">
         <v>2011</v>
       </c>
@@ -29971,7 +29976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="660" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="6">
         <v>2014</v>
       </c>
@@ -30015,7 +30020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="6">
         <v>2011</v>
       </c>
@@ -30059,7 +30064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="6">
         <v>2011</v>
       </c>
@@ -30103,7 +30108,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="663" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="6">
         <v>2014</v>
       </c>
@@ -30147,7 +30152,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6">
         <v>2011</v>
       </c>
@@ -30191,7 +30196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="6">
         <v>2011</v>
       </c>
@@ -30235,7 +30240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="6">
         <v>2011</v>
       </c>
@@ -30279,7 +30284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="6">
         <v>2011</v>
       </c>
@@ -30323,7 +30328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="6">
         <v>2011</v>
       </c>
@@ -30411,7 +30416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="6">
         <v>2011</v>
       </c>
@@ -30455,7 +30460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="6">
         <v>2010</v>
       </c>
@@ -30499,7 +30504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="6">
         <v>2010</v>
       </c>
@@ -30543,7 +30548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="6">
         <v>2010</v>
       </c>
@@ -30587,7 +30592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="6">
         <v>2010</v>
       </c>
@@ -30631,7 +30636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="6">
         <v>2010</v>
       </c>
@@ -30675,7 +30680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="6">
         <v>2010</v>
       </c>
@@ -30719,7 +30724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="6">
         <v>2010</v>
       </c>
@@ -30763,7 +30768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="6">
         <v>2010</v>
       </c>
@@ -30807,7 +30812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="6">
         <v>2010</v>
       </c>
@@ -30851,7 +30856,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="6">
         <v>2010</v>
       </c>
@@ -30895,7 +30900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6">
         <v>2010</v>
       </c>
@@ -30939,7 +30944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="6">
         <v>2010</v>
       </c>
@@ -30983,7 +30988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="6">
         <v>2010</v>
       </c>
@@ -31027,7 +31032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="6">
         <v>2010</v>
       </c>
@@ -31071,7 +31076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="6">
         <v>2010</v>
       </c>
@@ -31159,7 +31164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="687" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="6">
         <v>2014</v>
       </c>
@@ -31203,7 +31208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="6">
         <v>2010</v>
       </c>
@@ -31247,7 +31252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="6">
         <v>2010</v>
       </c>
@@ -31291,7 +31296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="6">
         <v>2010</v>
       </c>
@@ -31335,7 +31340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="6">
         <v>2010</v>
       </c>
@@ -31379,7 +31384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="692" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="6">
         <v>2013</v>
       </c>
@@ -31423,7 +31428,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="6">
         <v>2010</v>
       </c>
@@ -31467,7 +31472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="6">
         <v>2010</v>
       </c>
@@ -31511,7 +31516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="6">
         <v>2010</v>
       </c>
@@ -31555,7 +31560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="6">
         <v>2010</v>
       </c>
@@ -31599,7 +31604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="6">
         <v>2010</v>
       </c>
@@ -31643,7 +31648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="6">
         <v>2009</v>
       </c>
@@ -31687,7 +31692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="6">
         <v>2009</v>
       </c>
@@ -31731,7 +31736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="7">
         <v>2009</v>
       </c>
@@ -31775,7 +31780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="6">
         <v>2009</v>
       </c>
@@ -31819,7 +31824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="7">
         <v>2009</v>
       </c>
@@ -31863,7 +31868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="6">
         <v>2009</v>
       </c>
@@ -31907,7 +31912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="6">
         <v>2009</v>
       </c>
@@ -31951,7 +31956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="7">
         <v>2009</v>
       </c>
@@ -31995,7 +32000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="7">
         <v>2009</v>
       </c>
@@ -32083,7 +32088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="6">
         <v>2009</v>
       </c>
@@ -32127,7 +32132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="6">
         <v>2009</v>
       </c>
@@ -32171,7 +32176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="6">
         <v>2009</v>
       </c>
@@ -32215,7 +32220,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="6">
         <v>2009</v>
       </c>
@@ -32259,7 +32264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="6">
         <v>2009</v>
       </c>
@@ -32303,7 +32308,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6">
         <v>2009</v>
       </c>
@@ -32347,7 +32352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="7">
         <v>2009</v>
       </c>
@@ -32435,7 +32440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="6">
         <v>2009</v>
       </c>
@@ -32479,7 +32484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="6">
         <v>2009</v>
       </c>
@@ -32523,7 +32528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="6">
         <v>2009</v>
       </c>
@@ -32567,7 +32572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="6">
         <v>2009</v>
       </c>
@@ -32611,7 +32616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="6">
         <v>2009</v>
       </c>
@@ -32655,7 +32660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="6">
         <v>2009</v>
       </c>
@@ -32699,7 +32704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="6">
         <v>2009</v>
       </c>
@@ -32743,7 +32748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="6">
         <v>2008</v>
       </c>
@@ -32787,7 +32792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="6">
         <v>2008</v>
       </c>
@@ -32831,7 +32836,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="7">
         <v>2008</v>
       </c>
@@ -32919,7 +32924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="6">
         <v>2008</v>
       </c>
@@ -32963,7 +32968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="6">
         <v>2008</v>
       </c>
@@ -33007,7 +33012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="6">
         <v>2008</v>
       </c>
@@ -33051,7 +33056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="6">
         <v>2008</v>
       </c>
@@ -33095,7 +33100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="6">
         <v>2008</v>
       </c>
@@ -33139,7 +33144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="6">
         <v>2008</v>
       </c>
@@ -33183,7 +33188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="6">
         <v>2008</v>
       </c>
@@ -33227,7 +33232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="6">
         <v>2008</v>
       </c>
@@ -33271,7 +33276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="6">
         <v>2008</v>
       </c>
@@ -33315,7 +33320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="6">
         <v>2008</v>
       </c>
@@ -33359,7 +33364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="6">
         <v>2008</v>
       </c>
@@ -33403,7 +33408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="6">
         <v>2008</v>
       </c>
@@ -33447,7 +33452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="6">
         <v>2008</v>
       </c>
@@ -33491,7 +33496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="6">
         <v>2008</v>
       </c>
@@ -33535,7 +33540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="6">
         <v>2008</v>
       </c>
@@ -33579,7 +33584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="6">
         <v>2008</v>
       </c>
@@ -33623,7 +33628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="6">
         <v>2008</v>
       </c>
@@ -33667,7 +33672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6">
         <v>2008</v>
       </c>
@@ -33711,7 +33716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="6">
         <v>2008</v>
       </c>
@@ -33755,7 +33760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6">
         <v>2008</v>
       </c>
@@ -33799,7 +33804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="6">
         <v>2008</v>
       </c>
@@ -33843,7 +33848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="6">
         <v>2008</v>
       </c>
@@ -33887,7 +33892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="6">
         <v>2008</v>
       </c>
@@ -33931,7 +33936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="6">
         <v>2008</v>
       </c>
@@ -33975,8 +33980,15 @@
         <v>94</v>
       </c>
     </row>
+    <row r="751" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="C1:C751" xr:uid="{883090B8-ACAA-47D5-903B-9094A097DB32}"/>
+  <autoFilter ref="C1:C751" xr:uid="{883090B8-ACAA-47D5-903B-9094A097DB32}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Зеленогорск, ул.Экипажная"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:N692">
     <sortCondition ref="C2:C692"/>
   </sortState>
